--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -4,26 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="12255"/>
+    <workbookView windowWidth="20565" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
     <sheet name="流程测试" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="特殊测试点" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1、</t>
+  </si>
+  <si>
+    <t>如果机器人没有知识库、没有模型、也没有行业模型，应该在加载的时候提示失败！</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,9 +43,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -49,14 +74,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,66 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -145,9 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +174,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,21 +182,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,19 +196,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +322,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,43 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,103 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +387,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,15 +425,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,6 +446,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -436,26 +466,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,162 +487,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +989,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1017,14 +1021,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>

--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -4,19 +4,68 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="功能测试" sheetId="1" r:id="rId1"/>
-    <sheet name="流程测试" sheetId="2" r:id="rId2"/>
-    <sheet name="特殊测试点" sheetId="3" r:id="rId3"/>
+    <sheet name="功能测试（第1期）" sheetId="1" r:id="rId1"/>
+    <sheet name="功能测试（第2期）" sheetId="4" r:id="rId2"/>
+    <sheet name="流程测试" sheetId="2" r:id="rId3"/>
+    <sheet name="特殊测试点" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>主要流程</t>
+  </si>
+  <si>
+    <t>功能点</t>
+  </si>
+  <si>
+    <t>特殊功能</t>
+  </si>
+  <si>
+    <t>是否测试通过</t>
+  </si>
+  <si>
+    <t>bug描述</t>
+  </si>
+  <si>
+    <t>创建机器人</t>
+  </si>
+  <si>
+    <t>机器人列表</t>
+  </si>
+  <si>
+    <t>同步知识库</t>
+  </si>
+  <si>
+    <t>知识库正常导入</t>
+  </si>
+  <si>
+    <t>知识库导入异常，返回错误的数据</t>
+  </si>
+  <si>
+    <t>知识库数据拉取</t>
+  </si>
+  <si>
+    <t>加载机器人</t>
+  </si>
+  <si>
+    <t>机器人问答</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>模型训练</t>
+  </si>
+  <si>
+    <t>机器人修改</t>
+  </si>
   <si>
     <t>1、</t>
   </si>
@@ -34,7 +83,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,23 +92,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,29 +124,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,39 +169,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +199,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -166,22 +215,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,12 +253,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -214,43 +367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,85 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,18 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,17 +447,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,6 +482,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -440,26 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,37 +564,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,97 +606,103 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,14 +1050,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:7">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -1012,8 +1158,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1021,20 +1166,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>主要流程</t>
   </si>
@@ -28,6 +28,9 @@
     <t>特殊功能</t>
   </si>
   <si>
+    <t>期待结果</t>
+  </si>
+  <si>
     <t>是否测试通过</t>
   </si>
   <si>
@@ -46,25 +49,85 @@
     <t>知识库正常导入</t>
   </si>
   <si>
-    <t>知识库导入异常，返回错误的数据</t>
+    <t>1、正常的多条数据插入</t>
+  </si>
+  <si>
+    <t>数据插入</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>2、清空数据的插入</t>
+  </si>
+  <si>
+    <t>3、非清空数据插入 - 数据无冲突</t>
+  </si>
+  <si>
+    <t>4、非清空数据插入 - 数据有冲突</t>
+  </si>
+  <si>
+    <t>数据报异常</t>
+  </si>
+  <si>
+    <t>5、更新功能</t>
+  </si>
+  <si>
+    <t>数据被更新</t>
+  </si>
+  <si>
+    <t>6、删除功能</t>
+  </si>
+  <si>
+    <t>数据删除</t>
+  </si>
+  <si>
+    <t>7、多条数据异常返回</t>
+  </si>
+  <si>
+    <t>返回异常信息里面包含多条异常</t>
+  </si>
+  <si>
+    <t>8、company_id没有</t>
+  </si>
+  <si>
+    <t>返回异常</t>
+  </si>
+  <si>
+    <t>9、answer为空</t>
+  </si>
+  <si>
+    <t>默认为null</t>
+  </si>
+  <si>
+    <t>10、category_id为空</t>
+  </si>
+  <si>
+    <t>11、parent_id为空</t>
+  </si>
+  <si>
+    <t>数据异常</t>
+  </si>
+  <si>
+    <t>12、knowledge_data数据格式错误</t>
+  </si>
+  <si>
+    <t>接口返回错误</t>
   </si>
   <si>
     <t>知识库数据拉取</t>
   </si>
   <si>
-    <t>加载机器人</t>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>模型训练</t>
+  </si>
+  <si>
+    <t>机器人修改</t>
   </si>
   <si>
     <t>机器人问答</t>
-  </si>
-  <si>
-    <t>数据挖掘</t>
-  </si>
-  <si>
-    <t>模型训练</t>
-  </si>
-  <si>
-    <t>机器人修改</t>
   </si>
   <si>
     <t>1、</t>
@@ -79,8 +142,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -107,9 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,15 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,39 +199,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,11 +230,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +253,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -223,22 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,25 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,157 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,17 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,16 +520,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,15 +554,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,23 +576,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,154 +615,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,97 +1110,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G47"/>
+  <dimension ref="B1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="69" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:7">
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="2:8">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="G13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="14" spans="5:7">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G2:G13 G25:G34 G35:G44 G45:G286">
+      <formula1>"通过,出错"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -1193,10 +1383,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>主要流程</t>
   </si>
@@ -40,9 +40,78 @@
     <t>创建机器人</t>
   </si>
   <si>
+    <t>1、正常创建机器人流程</t>
+  </si>
+  <si>
+    <t>数据插入</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>2、关键参数缺失</t>
+  </si>
+  <si>
+    <t>异常返回</t>
+  </si>
+  <si>
+    <t>3、机器人名的缺失</t>
+  </si>
+  <si>
+    <t>机器人ID作为机器人名</t>
+  </si>
+  <si>
+    <t>4、二级行业ID处理</t>
+  </si>
+  <si>
+    <t>自动找到一级行业</t>
+  </si>
+  <si>
+    <t>5、重复机器人创建</t>
+  </si>
+  <si>
+    <t>6、机器人有行业-行业机器人不存在</t>
+  </si>
+  <si>
+    <t>创建成功，新建行业，行业机器人ID为Null</t>
+  </si>
+  <si>
+    <t>7、机器人有行业-行业机器人存在</t>
+  </si>
+  <si>
+    <t>创建成功，不新建行业，企业机器人的行业ID自动找到ID</t>
+  </si>
+  <si>
+    <t>8、机器人无行业</t>
+  </si>
+  <si>
+    <t>创建成功，无新建行业，机器人行业为null</t>
+  </si>
+  <si>
     <t>机器人列表</t>
   </si>
   <si>
+    <t>给企业看到机器人列表</t>
+  </si>
+  <si>
+    <t>1、机器人列表</t>
+  </si>
+  <si>
+    <t>2、翻页功能</t>
+  </si>
+  <si>
+    <t>3、空列表</t>
+  </si>
+  <si>
+    <t>4、status=1的数据</t>
+  </si>
+  <si>
+    <t>给杨东建看到机器人列表</t>
+  </si>
+  <si>
+    <t>5、delete 非空的数据</t>
+  </si>
+  <si>
     <t>同步知识库</t>
   </si>
   <si>
@@ -52,12 +121,6 @@
     <t>1、正常的多条数据插入</t>
   </si>
   <si>
-    <t>数据插入</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
     <t>2、清空数据的插入</t>
   </si>
   <si>
@@ -116,6 +179,12 @@
   </si>
   <si>
     <t>知识库数据拉取</t>
+  </si>
+  <si>
+    <t>1、有数据</t>
+  </si>
+  <si>
+    <t>2、无数据</t>
   </si>
   <si>
     <t>数据挖掘</t>
@@ -141,8 +210,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -186,6 +255,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,23 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,17 +291,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,38 +362,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,43 +385,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,127 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,45 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,6 +637,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,145 +684,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,12 +1179,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H83"/>
+  <dimension ref="B1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1149,185 +1218,361 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G2:G13 G25:G34 G35:G44 G45:G286">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G10:G18 G33:G39 G40:G49 G50:G291">
       <formula1>"通过,出错"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1383,10 +1628,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>主要流程</t>
   </si>
@@ -187,6 +187,30 @@
     <t>2、无数据</t>
   </si>
   <si>
+    <t>机器人问答</t>
+  </si>
+  <si>
+    <t>正常问答</t>
+  </si>
+  <si>
+    <t>1、参数缺失</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>载入机器</t>
+  </si>
+  <si>
+    <t>1、机器人存在于缓存中</t>
+  </si>
+  <si>
+    <t>2、机器人不存在缓存中</t>
+  </si>
+  <si>
+    <t>2.1 机器人不存在</t>
+  </si>
+  <si>
     <t>数据挖掘</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
   </si>
   <si>
     <t>机器人修改</t>
-  </si>
-  <si>
-    <t>机器人问答</t>
   </si>
   <si>
     <t>1、</t>
@@ -210,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -233,14 +254,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,42 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -321,6 +336,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,48 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,73 +406,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,109 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +597,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,15 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -623,17 +659,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +687,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,145 +705,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,9 +1203,9 @@
   <dimension ref="B1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1550,29 +1571,75 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G10:G18 G33:G39 G40:G49 G50:G291">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G40 G41 G10:G18 G35:G39 G42:G49 G50:G291">
       <formula1>"通过,出错"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1628,10 +1695,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/02开发文档/测试文档.xlsx
+++ b/docs/02开发文档/测试文档.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试（第1期）" sheetId="1" r:id="rId1"/>
     <sheet name="功能测试（第2期）" sheetId="4" r:id="rId2"/>
     <sheet name="流程测试" sheetId="2" r:id="rId3"/>
-    <sheet name="特殊测试点" sheetId="3" r:id="rId4"/>
+    <sheet name="待确认的问题" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>主要流程</t>
   </si>
@@ -199,6 +199,33 @@
     <t>、</t>
   </si>
   <si>
+    <t>2、有匹配的答案</t>
+  </si>
+  <si>
+    <t>回答</t>
+  </si>
+  <si>
+    <t>3、多个匹配的答案</t>
+  </si>
+  <si>
+    <t>多个回答</t>
+  </si>
+  <si>
+    <t>4、近似匹配的答案</t>
+  </si>
+  <si>
+    <t>模糊匹配</t>
+  </si>
+  <si>
+    <t>5、相似问题的匹配</t>
+  </si>
+  <si>
+    <t>返回的是相似问题的ID</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
     <t>载入机器</t>
   </si>
   <si>
@@ -211,6 +238,30 @@
     <t>2.1 机器人不存在</t>
   </si>
   <si>
+    <t>机器人自动维护</t>
+  </si>
+  <si>
+    <t>知识库更新之后，机器人语料库自动更新</t>
+  </si>
+  <si>
+    <t>机器人自动卸载</t>
+  </si>
+  <si>
+    <t>1、企业机器人自动卸载</t>
+  </si>
+  <si>
+    <t>2、行业机器人自动卸载</t>
+  </si>
+  <si>
+    <t>机器人自动加载</t>
+  </si>
+  <si>
+    <t>1、企业机器人自动加载</t>
+  </si>
+  <si>
+    <t>2、行业机器人自动加载</t>
+  </si>
+  <si>
     <t>数据挖掘</t>
   </si>
   <si>
@@ -224,6 +275,24 @@
   </si>
   <si>
     <t>如果机器人没有知识库、没有模型、也没有行业模型，应该在加载的时候提示失败！</t>
+  </si>
+  <si>
+    <t>2、</t>
+  </si>
+  <si>
+    <t>对知识库同步来说，由于涉及到知识库的同步，对异常数据进行返回</t>
+  </si>
+  <si>
+    <t>待确认</t>
+  </si>
+  <si>
+    <t>而对于数据挖掘来说，对异常数据不进行处理，忽略</t>
+  </si>
+  <si>
+    <t>3、</t>
+  </si>
+  <si>
+    <t>问题回答的时候，只返回准确度高的问题ID，而不是标准问题ID</t>
   </si>
 </sst>
 </file>
@@ -233,8 +302,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,6 +322,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -261,7 +374,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,23 +419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,75 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -391,7 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,8 +672,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,15 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -644,45 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,142 +786,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1202,10 +1274,10 @@
   <sheetPr/>
   <dimension ref="B1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1588,27 +1660,73 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>59</v>
       </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
@@ -1617,19 +1735,53 @@
         <v>9</v>
       </c>
     </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -1639,7 +1791,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G40 G41 G10:G18 G35:G39 G42:G49 G50:G291">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G40 G41 G10:G18 G38:G39 G42:G49 G50:G291">
       <formula1>"通过,出错"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1685,20 +1837,47 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
